--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_49.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_49.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9932665464828676</v>
+        <v>0.85363966275345</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8075138831830579</v>
+        <v>0.619994795662734</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7781461095854172</v>
+        <v>0.7497894550657866</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9990001242042273</v>
+        <v>0.8428393704479968</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02802818002694591</v>
+        <v>0.346902193420548</v>
       </c>
       <c r="G2" t="n">
-        <v>1.287155549471963</v>
+        <v>2.541096551166373</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7935585021852873</v>
+        <v>0.8949886111887058</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007203851856686481</v>
+        <v>0.540559547597782</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2975652784969751</v>
+        <v>1.05178468119303</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1674161880671816</v>
+        <v>0.5889840349453863</v>
       </c>
       <c r="L2" t="n">
-        <v>1.430941025096473</v>
+        <v>0.8007008173664001</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1700528256744498</v>
+        <v>0.5982599447277452</v>
       </c>
       <c r="N2" t="n">
-        <v>137.1490896907676</v>
+        <v>36.11742480421515</v>
       </c>
       <c r="O2" t="n">
-        <v>278.484262233984</v>
+        <v>73.08200839244097</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9943295890935855</v>
+        <v>0.8535433715836264</v>
       </c>
       <c r="C3" t="n">
-        <v>0.806016784757952</v>
+        <v>0.6199745453324921</v>
       </c>
       <c r="D3" t="n">
-        <v>0.782736498916467</v>
+        <v>0.7498764643719915</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9983146611560619</v>
+        <v>0.8421139486178713</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0236032367799617</v>
+        <v>0.3471304220420945</v>
       </c>
       <c r="G3" t="n">
-        <v>1.29716665353415</v>
+        <v>2.541231965217944</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7771389457141883</v>
+        <v>0.8946773839455003</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0121424395023653</v>
+        <v>0.5430546616567421</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2677626300132717</v>
+        <v>1.051298483340659</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1536334494176372</v>
+        <v>0.5891777508036896</v>
       </c>
       <c r="L3" t="n">
-        <v>1.362906298010529</v>
+        <v>0.8005696974755763</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1560530226688591</v>
+        <v>0.5984567114171719</v>
       </c>
       <c r="N3" t="n">
-        <v>137.4927428493234</v>
+        <v>36.11610942724474</v>
       </c>
       <c r="O3" t="n">
-        <v>278.8279153925398</v>
+        <v>73.08069301547056</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9944036960745818</v>
+        <v>0.8534452328402521</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8058397132189709</v>
+        <v>0.6199555085077953</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7829043687922672</v>
+        <v>0.7499626462322764</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9982524372542237</v>
+        <v>0.841391874827626</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02329476449314315</v>
+        <v>0.3473630297688636</v>
       </c>
       <c r="G4" t="n">
-        <v>1.298350731730657</v>
+        <v>2.541359264552348</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7765384849021055</v>
+        <v>0.8943691164283729</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0125907469548332</v>
+        <v>0.5455382600140397</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2654443814601855</v>
+        <v>1.050846275910113</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1526262247883474</v>
+        <v>0.5893751180435628</v>
       </c>
       <c r="L4" t="n">
-        <v>1.358163451226766</v>
+        <v>0.8004360617399178</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1550299352585132</v>
+        <v>0.5986571869937785</v>
       </c>
       <c r="N4" t="n">
-        <v>137.5190532870488</v>
+        <v>36.11476970123373</v>
       </c>
       <c r="O4" t="n">
-        <v>278.8542258302651</v>
+        <v>73.07935328945955</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.99448309442927</v>
+        <v>0.8533461165971318</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8058316325602046</v>
+        <v>0.6199378209610886</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7834898829804585</v>
+        <v>0.7500475809998666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9981939608504281</v>
+        <v>0.8406762593757637</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02296426672206892</v>
+        <v>0.3475979543583317</v>
       </c>
       <c r="G5" t="n">
-        <v>1.298404767133034</v>
+        <v>2.54147754125862</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7744441346010086</v>
+        <v>0.8940653096895035</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01301205463308347</v>
+        <v>0.5479996446878942</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2629352269859986</v>
+        <v>1.050429586125115</v>
       </c>
       <c r="K5" t="n">
-        <v>0.151539653959183</v>
+        <v>0.5895743840757769</v>
       </c>
       <c r="L5" t="n">
-        <v>1.353081956526722</v>
+        <v>0.8003010949407752</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1539262520249618</v>
+        <v>0.5988595912668069</v>
       </c>
       <c r="N5" t="n">
-        <v>137.5476317839057</v>
+        <v>36.11341754130659</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8828043271221</v>
+        <v>73.07800112953241</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9945460208128294</v>
+        <v>0.853245880883623</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8056268834810739</v>
+        <v>0.6199213534426939</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7835166001123793</v>
+        <v>0.7501317077466505</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9981344066561393</v>
+        <v>0.8399657578879123</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02270233397056764</v>
+        <v>0.3478355323082699</v>
       </c>
       <c r="G6" t="n">
-        <v>1.299773925167964</v>
+        <v>2.54158765962995</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7743485689692761</v>
+        <v>0.8937643931942068</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01344112751885061</v>
+        <v>0.5504434397015399</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2608964556345941</v>
+        <v>1.050043059192681</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1506729370874798</v>
+        <v>0.5897758322517717</v>
       </c>
       <c r="L6" t="n">
-        <v>1.349054667978919</v>
+        <v>0.8001646037564227</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1530458852289283</v>
+        <v>0.5990642120501992</v>
       </c>
       <c r="N6" t="n">
-        <v>137.570575083387</v>
+        <v>36.11205103846348</v>
       </c>
       <c r="O6" t="n">
-        <v>278.9057476266034</v>
+        <v>73.0766346266893</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9946075557045113</v>
+        <v>0.853144189500337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8053568266844952</v>
+        <v>0.6199059041557935</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7836074035675259</v>
+        <v>0.7502150176849528</v>
       </c>
       <c r="E7" t="n">
-        <v>0.998051724997831</v>
+        <v>0.8392592958923238</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02244619334115474</v>
+        <v>0.3480765604759928</v>
       </c>
       <c r="G7" t="n">
-        <v>1.301579796210184</v>
+        <v>2.541690969082591</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7740237702753039</v>
+        <v>0.8934663983754869</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01403682792507754</v>
+        <v>0.55287334073858</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2590089286113372</v>
+        <v>1.049689779998227</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1498205371140911</v>
+        <v>0.5899801356622042</v>
       </c>
       <c r="L7" t="n">
-        <v>1.345116434911276</v>
+        <v>0.8000261303834376</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1521800608080461</v>
+        <v>0.5992717330351176</v>
       </c>
       <c r="N7" t="n">
-        <v>137.5932684816246</v>
+        <v>36.11066564407324</v>
       </c>
       <c r="O7" t="n">
-        <v>278.928441024841</v>
+        <v>73.07524923229906</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9946743001150218</v>
+        <v>0.8530419234940771</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8051626703010404</v>
+        <v>0.6198918068160217</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7836969324601742</v>
+        <v>0.7502972673334789</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9979872362897132</v>
+        <v>0.8385598569657838</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02216836795054095</v>
+        <v>0.3483189506108565</v>
       </c>
       <c r="G8" t="n">
-        <v>1.302878120840353</v>
+        <v>2.541785238058557</v>
       </c>
       <c r="H8" t="n">
-        <v>0.773703530617484</v>
+        <v>0.8931721961518176</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01450145273315241</v>
+        <v>0.5552790856810665</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2571120267669808</v>
+        <v>1.049364209095433</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1488904562103997</v>
+        <v>0.5901855221969246</v>
       </c>
       <c r="L8" t="n">
-        <v>1.340844792638606</v>
+        <v>0.7998868745451263</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1512353320598614</v>
+        <v>0.5994803542024486</v>
       </c>
       <c r="N8" t="n">
-        <v>137.6181777465702</v>
+        <v>36.10927338843234</v>
       </c>
       <c r="O8" t="n">
-        <v>278.9533502897866</v>
+        <v>73.07385697665816</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9947301060644135</v>
+        <v>0.8529383245709335</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8048289293403325</v>
+        <v>0.6198785249569452</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7836709230128939</v>
+        <v>0.7503786487569644</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9978917308555321</v>
+        <v>0.8378635563073031</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02193607419635572</v>
+        <v>0.3485645000155015</v>
       </c>
       <c r="G9" t="n">
-        <v>1.305109848181343</v>
+        <v>2.54187405391136</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7737965649022915</v>
+        <v>0.8928810995187766</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01518954519649497</v>
+        <v>0.5576740364394929</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2556133585464795</v>
+        <v>1.04906988961396</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1481083191328418</v>
+        <v>0.5903935128501172</v>
       </c>
       <c r="L9" t="n">
-        <v>1.337273211877537</v>
+        <v>0.7997458036710585</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1504408771051822</v>
+        <v>0.5996916205005146</v>
       </c>
       <c r="N9" t="n">
-        <v>137.6392455475331</v>
+        <v>36.10786397390493</v>
       </c>
       <c r="O9" t="n">
-        <v>278.9744180907495</v>
+        <v>73.07244756213075</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9947311260076531</v>
+        <v>0.8528337876418691</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8042946119700684</v>
+        <v>0.6198662724110073</v>
       </c>
       <c r="D10" t="n">
-        <v>0.783290471190084</v>
+        <v>0.7504592706653391</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9977541295962798</v>
+        <v>0.8371728042728962</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0219318286553914</v>
+        <v>0.3488122726748717</v>
       </c>
       <c r="G10" t="n">
-        <v>1.308682830896605</v>
+        <v>2.541955986742464</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7751574190126185</v>
+        <v>0.8925927196272467</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01618092741730413</v>
+        <v>0.5600499025090401</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2546516122786658</v>
+        <v>1.048807016544489</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1480939858852864</v>
+        <v>0.5906033124482725</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3372079355102</v>
+        <v>0.7996034555123324</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1504263181233058</v>
+        <v>0.5999047242326182</v>
       </c>
       <c r="N10" t="n">
-        <v>137.63963266802</v>
+        <v>36.10644280429045</v>
       </c>
       <c r="O10" t="n">
-        <v>278.9748052112364</v>
+        <v>73.07102639251627</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9947047613335513</v>
+        <v>0.8527288839319596</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8036082374664166</v>
+        <v>0.6198551337504334</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7825897591391106</v>
+        <v>0.7505388675004668</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9975842036749912</v>
+        <v>0.836488486357737</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02204157231519326</v>
+        <v>0.3490609146754999</v>
       </c>
       <c r="G11" t="n">
-        <v>1.313272620362988</v>
+        <v>2.54203047101701</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7776638253893312</v>
+        <v>0.8923080063632844</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01740520064078806</v>
+        <v>0.5624036381977172</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2540469905900133</v>
+        <v>1.0485617016607</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1484640438462905</v>
+        <v>0.5908137732615074</v>
       </c>
       <c r="L11" t="n">
-        <v>1.338895274652714</v>
+        <v>0.7994606079073492</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1508022041272734</v>
+        <v>0.600118499593278</v>
       </c>
       <c r="N11" t="n">
-        <v>137.6296499161542</v>
+        <v>36.10501766278534</v>
       </c>
       <c r="O11" t="n">
-        <v>278.9648224593706</v>
+        <v>73.06960125101116</v>
       </c>
     </row>
   </sheetData>
